--- a/sketch/Sound Assetlist.xlsx
+++ b/sketch/Sound Assetlist.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7903B18D-C90D-4834-A1BB-C2257A67218F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDFC9A2-B76F-4E23-A8D9-117A1DBE011F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="200">
   <si>
     <t>File Name</t>
   </si>
@@ -626,6 +626,9 @@
   </si>
   <si>
     <t>Ingame</t>
+  </si>
+  <si>
+    <t>interaction_success</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -3491,8 +3494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D5EB9A-558E-45AE-867C-31B7DD80BC6E}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3556,7 +3559,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>5</v>

--- a/sketch/Sound Assetlist.xlsx
+++ b/sketch/Sound Assetlist.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDFC9A2-B76F-4E23-A8D9-117A1DBE011F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7B2825-441A-452F-9E3E-37DB5EBA0176}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,8 @@
     <sheet name="Summer" sheetId="6" r:id="rId7"/>
     <sheet name="Factory" sheetId="7" r:id="rId8"/>
     <sheet name="Interaction SFX" sheetId="11" r:id="rId9"/>
-    <sheet name="Music" sheetId="9" r:id="rId10"/>
+    <sheet name="Voice" sheetId="12" r:id="rId10"/>
+    <sheet name="Music" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="208">
   <si>
     <t>File Name</t>
   </si>
@@ -629,6 +630,30 @@
   </si>
   <si>
     <t>interaction_success</t>
+  </si>
+  <si>
+    <t>Voice words</t>
+  </si>
+  <si>
+    <t>should be very robotic</t>
+  </si>
+  <si>
+    <t>Freeze</t>
+  </si>
+  <si>
+    <t>Burn</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Break</t>
   </si>
 </sst>
 </file>
@@ -683,7 +708,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -816,6 +841,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -844,7 +875,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -885,6 +916,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2189,6 +2221,120 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A08ADBF-0156-4855-95C9-C0D0EF140B64}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="50.77734375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="80.77734375" style="5" customWidth="1"/>
+    <col min="4" max="5" width="15.77734375" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A511E283-359F-4B23-A7FD-2B1984BC6E67}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -3494,8 +3640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D5EB9A-558E-45AE-867C-31B7DD80BC6E}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/sketch/Sound Assetlist.xlsx
+++ b/sketch/Sound Assetlist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7B2825-441A-452F-9E3E-37DB5EBA0176}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CF0D2C-FDF7-44C5-85C2-82D0279B3024}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="212">
   <si>
     <t>File Name</t>
   </si>
@@ -320,9 +320,6 @@
     <t>Fighting theme</t>
   </si>
   <si>
-    <t>Boss fight theme</t>
-  </si>
-  <si>
     <t>Menu theme</t>
   </si>
   <si>
@@ -654,6 +651,21 @@
   </si>
   <si>
     <t>Break</t>
+  </si>
+  <si>
+    <t>Boss fight Summer</t>
+  </si>
+  <si>
+    <t>Boss fight Spring</t>
+  </si>
+  <si>
+    <t>Boss fight Fall</t>
+  </si>
+  <si>
+    <t>Boss fight Winter</t>
+  </si>
+  <si>
+    <t>Boss fight final</t>
   </si>
 </sst>
 </file>
@@ -1256,12 +1268,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -2251,21 +2263,21 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>5</v>
@@ -2276,7 +2288,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>5</v>
@@ -2287,7 +2299,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>5</v>
@@ -2298,7 +2310,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>5</v>
@@ -2309,7 +2321,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>5</v>
@@ -2320,7 +2332,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>5</v>
@@ -2336,10 +2348,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A511E283-359F-4B23-A7FD-2B1984BC6E67}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2365,19 +2377,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -2388,7 +2400,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -2410,7 +2422,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
@@ -2421,7 +2433,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
@@ -2432,7 +2444,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
@@ -2443,7 +2455,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -2454,14 +2466,14 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>96</v>
+        <v>207</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
@@ -2469,6 +2481,50 @@
       <c r="C14" s="1"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
@@ -2524,19 +2580,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -2547,16 +2603,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>5</v>
@@ -2567,7 +2623,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>5</v>
@@ -2578,7 +2634,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>5</v>
@@ -2589,7 +2645,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>5</v>
@@ -2600,7 +2656,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>5</v>
@@ -2611,7 +2667,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>5</v>
@@ -2622,7 +2678,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>5</v>
@@ -2633,16 +2689,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>5</v>
@@ -2653,7 +2709,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>5</v>
@@ -2664,7 +2720,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>5</v>
@@ -2675,7 +2731,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>5</v>
@@ -2686,7 +2742,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>5</v>
@@ -2697,7 +2753,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>5</v>
@@ -2708,7 +2764,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>5</v>
@@ -2719,7 +2775,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>5</v>
@@ -2730,7 +2786,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>5</v>
@@ -2741,7 +2797,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>5</v>
@@ -2752,7 +2808,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>5</v>
@@ -2763,7 +2819,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>5</v>
@@ -2774,7 +2830,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>5</v>
@@ -2785,7 +2841,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>5</v>
@@ -2796,16 +2852,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>5</v>
@@ -2816,7 +2872,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>5</v>
@@ -2827,7 +2883,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>5</v>
@@ -2838,7 +2894,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>5</v>
@@ -2849,7 +2905,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>5</v>
@@ -2860,7 +2916,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>5</v>
@@ -2871,7 +2927,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>5</v>
@@ -2882,16 +2938,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B41" s="24" t="s">
         <v>5</v>
@@ -2902,7 +2958,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B42" s="24" t="s">
         <v>5</v>
@@ -2913,7 +2969,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B43" s="24" t="s">
         <v>5</v>
@@ -2924,7 +2980,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B44" s="25" t="s">
         <v>5</v>
@@ -2935,7 +2991,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B45" s="25" t="s">
         <v>5</v>
@@ -2946,7 +3002,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B46" s="25" t="s">
         <v>5</v>
@@ -2957,7 +3013,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B47" s="25" t="s">
         <v>5</v>
@@ -3002,19 +3058,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>9</v>
@@ -3025,7 +3081,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>5</v>
@@ -3036,7 +3092,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>5</v>
@@ -3047,14 +3103,14 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>9</v>
@@ -3065,7 +3121,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>5</v>
@@ -3076,7 +3132,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>5</v>
@@ -3087,14 +3143,14 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>9</v>
@@ -3105,7 +3161,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>5</v>
@@ -3116,7 +3172,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>5</v>
@@ -3161,19 +3217,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -3182,25 +3238,25 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -3243,19 +3299,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>5</v>
@@ -3266,29 +3322,29 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>5</v>
@@ -3299,7 +3355,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>9</v>
@@ -3344,19 +3400,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -3365,7 +3421,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -3374,25 +3430,25 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -3401,7 +3457,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -3449,14 +3505,14 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -3465,7 +3521,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -3474,25 +3530,25 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -3503,7 +3559,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -3548,26 +3604,26 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>9</v>
@@ -3578,7 +3634,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>5</v>
@@ -3589,7 +3645,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>5</v>
@@ -3600,7 +3656,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>5</v>
@@ -3611,7 +3667,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>5</v>
@@ -3622,7 +3678,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>5</v>
@@ -3667,45 +3723,45 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>186</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>5</v>
@@ -3716,7 +3772,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>5</v>
@@ -3727,14 +3783,14 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>5</v>
@@ -3745,20 +3801,20 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>189</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>190</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>5</v>
@@ -3769,13 +3825,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
